--- a/biology/Zoologie/Alanqa/Alanqa.xlsx
+++ b/biology/Zoologie/Alanqa/Alanqa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alanqa saharica
-Alanqa est un genre fossile de ptérosaures ayant vécu dans l'actuel du sud-est du Maroc durant le Crétacé supérieur. Une seule espèce est connue, Alanqa saharica[1].
+Alanqa est un genre fossile de ptérosaures ayant vécu dans l'actuel du sud-est du Maroc durant le Crétacé supérieur. Une seule espèce est connue, Alanqa saharica.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Datation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Alanqa saharica a été découverte dans les faciès fluviatiles rouges des bancs de Kem Kem, qui font partie du Continental intercalaire. Ces bancs de Kem Kem sont datés du Cénomanien[2], soit d'il y a entre 100,5 et 93,9 Ma (millions d'années).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Alanqa saharica a été découverte dans les faciès fluviatiles rouges des bancs de Kem Kem, qui font partie du Continental intercalaire. Ces bancs de Kem Kem sont datés du Cénomanien, soit d'il y a entre 100,5 et 93,9 Ma (millions d'années).
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alanqa est connu à partir de cinq fragments de mâchoires supérieures et inférieures, et d'une vertèbre du cou. Les mâchoires sont droites et pointues, comme celles de Quetzalcoatlus[1].
-En les comparant à d'autres Azhdarchidae, les fossiles de Alanqa indiquent qu'il aurait une envergure entre 4 et 6 m. En 2018 a été identifié, également dans les lits de Kem Kem, un autre ptérosaure qui lui est étroitement apparenté, Xericeps , d'une envergure de 3,5-4 m[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alanqa est connu à partir de cinq fragments de mâchoires supérieures et inférieures, et d'une vertèbre du cou. Les mâchoires sont droites et pointues, comme celles de Quetzalcoatlus.
+En les comparant à d'autres Azhdarchidae, les fossiles de Alanqa indiquent qu'il aurait une envergure entre 4 et 6 m. En 2018 a été identifié, également dans les lits de Kem Kem, un autre ptérosaure qui lui est étroitement apparenté, Xericeps , d'une envergure de 3,5-4 m.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Alanqa et l'espèce Alanqa saharica sont décrits en 2010 par Nizar Ibrahim (d), David Unwin, David M. Martill (d), Lahssen Baidder (d) et Samir Zouhri (d)[4],[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Alanqa et l'espèce Alanqa saharica sont décrits en 2010 par Nizar Ibrahim (d), David Unwin, David M. Martill (d), Lahssen Baidder (d) et Samir Zouhri (d),.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Alanqa vient du mot arabe العنقاء, al-‘anqā’, qui signifie phénix[1]. L'épithète spécifique, saharica, fait référence au Sahara, région où ont été découverts les fossiles[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Alanqa vient du mot arabe العنقاء, al-‘anqā’, qui signifie phénix. L'épithète spécifique, saharica, fait référence au Sahara, région où ont été découverts les fossiles.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Nizar Ibrahim, David M. Unwin, David M. Martill, Lahssen Baidder et Samir Zouhri, « A New Pterosaur (Pterodactyloidea: Azhdarchidae) from the Upper Cretaceous of Morocco », PLOS One, PLoS, vol. 5, no 5,‎ 26 mai 2010, e10875 (ISSN 1932-6203, OCLC 228234657, PMID 20520782, PMCID 2877115, DOI 10.1371/JOURNAL.PONE.0010875, lire en ligne)</t>
         </is>
